--- a/AmpedBiz/AmpedBiz.Service.Host/Data/Default/default_uom.xlsx
+++ b/AmpedBiz/AmpedBiz.Service.Host/Data/Default/default_uom.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>BX</t>
   </si>
@@ -60,6 +60,12 @@
   </si>
   <si>
     <t>BAG</t>
+  </si>
+  <si>
+    <t>STRIP</t>
+  </si>
+  <si>
+    <t>BOX</t>
   </si>
 </sst>
 </file>
@@ -758,7 +764,7 @@
   <dimension ref="A1:A296"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -828,10 +834,14 @@
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
